--- a/GameTools/tables/excel/Y语言.xlsx
+++ b/GameTools/tables/excel/Y语言.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>define</t>
   </si>
@@ -134,6 +134,40 @@
   </si>
   <si>
     <t>SOUND</t>
+  </si>
+  <si>
+    <t>Tetris Game
+Moon Game Framework
+https://github.com/Sarofc/com.saro.mgf
+控制: 键盘/鼠标
+Left/Right Arrow: 移动
+Down Arrow: 加速降落
+Space: 直接降落
+Z: 左旋
+X: 右旋
+C: 保持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLAY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetris Game
+Moon Game Framework
+https://github.com/Sarofc/com.saro.mgf
+Control: keyboard/mouse
+Left/Right Arrow: move left/right
+Down Arrow: soft drop
+Space: hard drop
+Z: rotate left
+X: rotate right
+C: hold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -190,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,11 +244,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -522,13 +569,14 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="55.54296875" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="10.6328125" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
@@ -755,8 +803,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
@@ -768,10 +820,14 @@
       <c r="L12" s="4"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="154" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1">
+        <v>20001</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
@@ -959,29 +1015,34 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.7265625" customWidth="1"/>
-    <col min="14" max="14" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="11" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="11.1796875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="10" customWidth="1"/>
+    <col min="8" max="11" width="9" style="10"/>
+    <col min="12" max="12" width="12.453125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="19.90625" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="str">
+      <c r="B1" s="7" t="str">
         <f>Language_ZH!B1</f>
         <v>key</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="1"/>
@@ -998,7 +1059,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="7" t="str">
         <f>Language_ZH!B2</f>
         <v>id</v>
       </c>
@@ -1016,11 +1077,11 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="7" t="str">
         <f>Language_ZH!B3</f>
         <v>int</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1039,11 +1100,11 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="7" t="str">
         <f>Language_ZH!B4</f>
         <v>key</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1062,18 +1123,18 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <f>Language_ZH!B5</f>
         <v>10001</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="10" t="str">
         <f>Language_ZH!C5</f>
         <v>开始</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
@@ -1085,18 +1146,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f>Language_ZH!B6</f>
         <v>10002</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="10" t="str">
         <f>Language_ZH!C6</f>
         <v>设置</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
@@ -1108,18 +1169,18 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <f>Language_ZH!B7</f>
         <v>10003</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="10" t="str">
         <f>Language_ZH!C7</f>
         <v>关于</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="3"/>
@@ -1131,18 +1192,18 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <f>Language_ZH!B8</f>
         <v>10004</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="10" t="str">
         <f>Language_ZH!C8</f>
         <v>退出</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
@@ -1154,18 +1215,18 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <f>Language_ZH!B9</f>
         <v>10005</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="10" t="str">
         <f>Language_ZH!C9</f>
         <v>语言</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="3"/>
@@ -1177,18 +1238,18 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <f>Language_ZH!B10</f>
         <v>10006</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="10" t="str">
         <f>Language_ZH!C10</f>
         <v>音乐</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="3"/>
@@ -1200,18 +1261,18 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <f>Language_ZH!B11</f>
         <v>10007</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="10" t="str">
         <f>Language_ZH!C11</f>
         <v>音效</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="3"/>
@@ -1223,9 +1284,18 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="7">
+        <f>Language_ZH!B12</f>
+        <v>10008</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f>Language_ZH!C12</f>
+        <v>重玩</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
@@ -1235,10 +1305,28 @@
       <c r="L12" s="4"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="7">
+        <f>Language_ZH!B13</f>
+        <v>20001</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>Language_ZH!C13</f>
+        <v>Tetris Game
+Moon Game Framework
+https://github.com/Sarofc/com.saro.mgf
+控制: 键盘/鼠标
+Left/Right Arrow: 移动
+Down Arrow: 加速降落
+Space: 直接降落
+Z: 左旋
+X: 右旋
+C: 保持</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="3"/>
@@ -1250,7 +1338,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1263,7 +1351,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="7"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1276,7 +1364,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="7"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1289,7 +1377,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1302,7 +1390,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1315,7 +1403,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1328,7 +1416,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1341,7 +1429,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1354,7 +1442,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="7"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1367,7 +1455,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
@@ -1380,7 +1468,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1391,10 +1479,10 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
@@ -1405,5 +1493,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameTools/tables/excel/Y语言.xlsx
+++ b/GameTools/tables/excel/Y语言.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarof\Projects\Git\tetris-unity\GameTools\tables\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarof\Projects\Git\tetris-ecs-unity\GameTools\tables\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>define</t>
   </si>
@@ -136,37 +136,37 @@
     <t>SOUND</t>
   </si>
   <si>
-    <t>Tetris Game
+    <t>返回</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=78&gt;Tetris Game&lt;/size&gt;
 Moon Game Framework
 https://github.com/Sarofc/com.saro.mgf
 控制: 键盘/鼠标
-Left/Right Arrow: 移动
-Down Arrow: 加速降落
-Space: 直接降落
-Z: 左旋
-X: 右旋
-C: 保持</t>
+&lt;color=red&gt;Left/Right Arrow&lt;/color&gt;: 移动
+&lt;color=red&gt;Down Arrow&lt;/color&gt;: 加速降落
+&lt;color=red&gt;Space&lt;/color&gt;: 直接降落
+&lt;color=red&gt;Z&lt;/color&gt;: 左旋
+&lt;color=red&gt;X&lt;/color&gt;: 右旋
+&lt;color=red&gt;C&lt;/color&gt;: 保持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REPLAY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tetris Game
+    <t>&lt;size=78&gt;Tetris Game&lt;/size&gt;
 Moon Game Framework
 https://github.com/Sarofc/com.saro.mgf
 Control: keyboard/mouse
-Left/Right Arrow: move left/right
-Down Arrow: soft drop
-Space: hard drop
-Z: rotate left
-X: rotate right
-C: hold</t>
+&lt;color=red&gt;Left/Right Arrow&lt;/color&gt;: move left/right
+&lt;color=red&gt;Down Arrow&lt;/color&gt;: soft drop
+&lt;color=red&gt;Space&lt;/color&gt;: hard drop
+&lt;color=red&gt;Z&lt;/color&gt;: rotate left
+&lt;color=red&gt;X&lt;/color&gt;: rotate right
+&lt;color=red&gt;C&lt;/color&gt;: hold</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,17 +250,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,21 +566,23 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="55.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.7265625" customWidth="1"/>
-    <col min="14" max="14" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="11" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="55.54296875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="11" customWidth="1"/>
+    <col min="8" max="11" width="9" style="11"/>
+    <col min="12" max="12" width="12.453125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="19.90625" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -806,8 +805,8 @@
       <c r="B12" s="1">
         <v>10008</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
@@ -826,7 +825,7 @@
         <v>20001</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
@@ -1012,29 +1011,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="11.1796875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="10" customWidth="1"/>
-    <col min="8" max="11" width="9" style="10"/>
-    <col min="12" max="12" width="12.453125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="18.7265625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="19.90625" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="64.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="12.453125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.90625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,20 +1041,13 @@
         <f>Language_ZH!B1</f>
         <v>key</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1071,9 +1063,8 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1072,7 @@
         <f>Language_ZH!B3</f>
         <v>int</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1094,9 +1085,8 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1094,7 @@
         <f>Language_ZH!B4</f>
         <v>key</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1117,9 +1107,8 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1127,367 +1116,273 @@
         <f>Language_ZH!B5</f>
         <v>10001</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="1" t="str">
         <f>Language_ZH!C5</f>
         <v>开始</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="10"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <f>Language_ZH!B6</f>
         <v>10002</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="1" t="str">
         <f>Language_ZH!C6</f>
         <v>设置</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="10"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <f>Language_ZH!B7</f>
         <v>10003</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="1" t="str">
         <f>Language_ZH!C7</f>
         <v>关于</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="10"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <f>Language_ZH!B8</f>
         <v>10004</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="1" t="str">
         <f>Language_ZH!C8</f>
         <v>退出</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="10"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <f>Language_ZH!B9</f>
         <v>10005</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="1" t="str">
         <f>Language_ZH!C9</f>
         <v>语言</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="10"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <f>Language_ZH!B10</f>
         <v>10006</v>
       </c>
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="1" t="str">
         <f>Language_ZH!C10</f>
         <v>音乐</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="10"/>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <f>Language_ZH!B11</f>
         <v>10007</v>
       </c>
-      <c r="C11" s="10" t="str">
+      <c r="C11" s="1" t="str">
         <f>Language_ZH!C11</f>
         <v>音效</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="10"/>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <f>Language_ZH!B12</f>
         <v>10008</v>
       </c>
-      <c r="C12" s="10" t="str">
-        <f>Language_ZH!C12</f>
-        <v>重玩</v>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="10"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <f>Language_ZH!B13</f>
         <v>20001</v>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C13" s="9" t="str">
         <f>Language_ZH!C13</f>
-        <v>Tetris Game
+        <v>&lt;size=78&gt;Tetris Game&lt;/size&gt;
 Moon Game Framework
 https://github.com/Sarofc/com.saro.mgf
 控制: 键盘/鼠标
-Left/Right Arrow: 移动
-Down Arrow: 加速降落
-Space: 直接降落
-Z: 左旋
-X: 右旋
-C: 保持</v>
+&lt;color=red&gt;Left/Right Arrow&lt;/color&gt;: 移动
+&lt;color=red&gt;Down Arrow&lt;/color&gt;: 加速降落
+&lt;color=red&gt;Space&lt;/color&gt;: 直接降落
+&lt;color=red&gt;Z&lt;/color&gt;: 左旋
+&lt;color=red&gt;X&lt;/color&gt;: 右旋
+&lt;color=red&gt;C&lt;/color&gt;: 保持</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="D20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="D21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="H21" s="3"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="D22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="3"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="D23" s="1"/>
-      <c r="F23" s="1"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="D24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
   </sheetData>

--- a/GameTools/tables/excel/Y语言.xlsx
+++ b/GameTools/tables/excel/Y语言.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Language_ZH" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>define</t>
   </si>
@@ -167,6 +167,22 @@
 &lt;color=red&gt;Z&lt;/color&gt;: rotate left
 &lt;color=red&gt;X&lt;/color&gt;: rotate right
 &lt;color=red&gt;C&lt;/color&gt;: hold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -819,44 +835,42 @@
       <c r="L12" s="4"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="154" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>20001</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>10009</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>10010</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="10"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" ht="154" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1">
+        <v>20001</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
@@ -980,7 +994,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -993,14 +1007,44 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1249,8 +1293,9 @@
         <f>Language_ZH!B12</f>
         <v>10008</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
+      <c r="C12" s="1" t="str">
+        <f>Language_ZH!C12</f>
+        <v>返回</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>28</v>
@@ -1262,13 +1307,51 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <f>Language_ZH!B13</f>
+        <v>10009</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>Language_ZH!C13</f>
+        <v>重置</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <f>Language_ZH!B14</f>
+        <v>10010</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>Language_ZH!C14</f>
+        <v>校验</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <f>Language_ZH!B15</f>
         <v>20001</v>
       </c>
-      <c r="C13" s="9" t="str">
-        <f>Language_ZH!C13</f>
+      <c r="C15" s="9" t="str">
+        <f>Language_ZH!C15</f>
         <v>&lt;size=78&gt;Tetris Game&lt;/size&gt;
 Moon Game Framework
 https://github.com/Sarofc/com.saro.mgf
@@ -1280,25 +1363,9 @@
 &lt;color=red&gt;X&lt;/color&gt;: 右旋
 &lt;color=red&gt;C&lt;/color&gt;: 保持</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1363,7 +1430,6 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1372,18 +1438,35 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
